--- a/Images/MEL/asymmetry measurements.xlsx
+++ b/Images/MEL/asymmetry measurements.xlsx
@@ -1,6 +1,6 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26227"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\pythonpython\First Year Project 2\Image-processing-project\Images\MEL\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{15784D04-4F6D-4F7C-B6FD-FBE5D0634873}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{08C4FD00-A6FC-43A1-AFB0-E870E5298700}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" firstSheet="1" activeTab="1"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="all-measurements (2)" sheetId="4" r:id="rId1"/>
@@ -23,26 +23,39 @@
     <definedName name="EksterneData_2" localSheetId="1" hidden="1">'all-measurements'!$A$1:$F$26</definedName>
     <definedName name="EksterneData_3" localSheetId="0" hidden="1">'all-measurements (2)'!$A$1:$F$26</definedName>
   </definedNames>
-  <calcPr calcId="0"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/connections.xml><?xml version="1.0" encoding="utf-8"?>
-<connections xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <connection id="1" keepAlive="1" name="Forespørgsel - all-measurements" description="Forbindelse til forespørgslen 'all-measurements' i projektmappen." type="5" refreshedVersion="8" background="1" saveData="1">
+<connections xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16">
+  <connection id="1" xr16:uid="{00000000-0015-0000-FFFF-FFFF00000000}" keepAlive="1" name="Forespørgsel - all-measurements" description="Forbindelse til forespørgslen 'all-measurements' i projektmappen." type="5" refreshedVersion="8" background="1" saveData="1">
     <dbPr connection="Provider=Microsoft.Mashup.OleDb.1;Data Source=$Workbook$;Location=all-measurements;Extended Properties=&quot;&quot;" command="SELECT * FROM [all-measurements]"/>
   </connection>
-  <connection id="2" keepAlive="1" name="Forespørgsel - all-measurements (2)" description="Forbindelse til forespørgslen 'all-measurements (2)' i projektmappen." type="5" refreshedVersion="8" background="1" saveData="1">
+  <connection id="2" xr16:uid="{00000000-0015-0000-FFFF-FFFF01000000}" keepAlive="1" name="Forespørgsel - all-measurements (2)" description="Forbindelse til forespørgslen 'all-measurements (2)' i projektmappen." type="5" refreshedVersion="8" background="1" saveData="1">
     <dbPr connection="Provider=Microsoft.Mashup.OleDb.1;Data Source=$Workbook$;Location=&quot;all-measurements (2)&quot;;Extended Properties=&quot;&quot;" command="SELECT * FROM [all-measurements (2)]"/>
   </connection>
-  <connection id="3" keepAlive="1" name="Forespørgsel - PAT_109_868_113 - measurements" description="Forbindelse til forespørgslen 'PAT_109_868_113 - measurements' i projektmappen." type="5" refreshedVersion="8" background="1" saveData="1">
+  <connection id="3" xr16:uid="{00000000-0015-0000-FFFF-FFFF02000000}" keepAlive="1" name="Forespørgsel - PAT_109_868_113 - measurements" description="Forbindelse til forespørgslen 'PAT_109_868_113 - measurements' i projektmappen." type="5" refreshedVersion="8" background="1" saveData="1">
     <dbPr connection="Provider=Microsoft.Mashup.OleDb.1;Data Source=$Workbook$;Location=&quot;PAT_109_868_113 - measurements&quot;;Extended Properties=&quot;&quot;" command="SELECT * FROM [PAT_109_868_113 - measurements]"/>
   </connection>
 </connections>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="11">
   <si>
     <t xml:space="preserve"> 	Area	Mean	Min	Max	Length</t>
   </si>
@@ -73,11 +86,14 @@
   <si>
     <t>Asymmetry</t>
   </si>
+  <si>
+    <t>Averages</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -605,10 +621,10 @@
   </cellStyles>
   <dxfs count="2">
     <dxf>
-      <numFmt numFmtId="2" formatCode="0.00"/>
+      <numFmt numFmtId="0" formatCode="General"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
+      <numFmt numFmtId="2" formatCode="0.00"/>
     </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -624,7 +640,7 @@
 </file>
 
 <file path=xl/queryTables/queryTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="EksterneData_3" connectionId="2" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0">
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="EksterneData_3" connectionId="2" xr16:uid="{00000000-0016-0000-0000-000000000000}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0">
   <queryTableRefresh nextId="8" unboundColumnsRight="1">
     <queryTableFields count="7">
       <queryTableField id="1" name=" " tableColumnId="1"/>
@@ -640,7 +656,7 @@
 </file>
 
 <file path=xl/queryTables/queryTable2.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="EksterneData_2" connectionId="1" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0">
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="EksterneData_2" connectionId="1" xr16:uid="{00000000-0016-0000-0100-000001000000}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0">
   <queryTableRefresh nextId="8" unboundColumnsRight="1">
     <queryTableFields count="7">
       <queryTableField id="1" name=" " tableColumnId="1"/>
@@ -656,7 +672,7 @@
 </file>
 
 <file path=xl/queryTables/queryTable3.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="EksterneData_1" connectionId="3" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0">
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="EksterneData_1" connectionId="3" xr16:uid="{00000000-0016-0000-0200-000002000000}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0">
   <queryTableRefresh nextId="7">
     <queryTableFields count="6">
       <queryTableField id="1" name=" " tableColumnId="1"/>
@@ -671,16 +687,16 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="all_measurements__2" displayName="all_measurements__2" ref="A1:G26" tableType="queryTable" totalsRowShown="0">
-  <autoFilter ref="A1:G26"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="all_measurements__2" displayName="all_measurements__2" ref="A1:G26" tableType="queryTable" totalsRowShown="0">
+  <autoFilter ref="A1:G26" xr:uid="{00000000-0009-0000-0100-000003000000}"/>
   <tableColumns count="7">
-    <tableColumn id="1" uniqueName="1" name=" " queryTableFieldId="1"/>
-    <tableColumn id="2" uniqueName="2" name="Area" queryTableFieldId="2"/>
-    <tableColumn id="3" uniqueName="3" name="Mean" queryTableFieldId="3"/>
-    <tableColumn id="4" uniqueName="4" name="Min" queryTableFieldId="4"/>
-    <tableColumn id="5" uniqueName="5" name="Max" queryTableFieldId="5"/>
-    <tableColumn id="6" uniqueName="6" name="Length" queryTableFieldId="6"/>
-    <tableColumn id="7" uniqueName="7" name="Asymmetry" queryTableFieldId="7" dataDxfId="0">
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" uniqueName="1" name=" " queryTableFieldId="1"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" uniqueName="2" name="Area" queryTableFieldId="2"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" uniqueName="3" name="Mean" queryTableFieldId="3"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" uniqueName="4" name="Min" queryTableFieldId="4"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" uniqueName="5" name="Max" queryTableFieldId="5"/>
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" uniqueName="6" name="Length" queryTableFieldId="6"/>
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0000-000007000000}" uniqueName="7" name="Asymmetry" queryTableFieldId="7" dataDxfId="1">
       <calculatedColumnFormula>all_measurements__2[[#This Row],[Area]]/all_measurements__2[[#This Row],[Length]]</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -689,16 +705,16 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="all_measurements" displayName="all_measurements" ref="A1:G26" tableType="queryTable" totalsRowShown="0">
-  <autoFilter ref="A1:G26"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{00000000-000C-0000-FFFF-FFFF01000000}" name="all_measurements" displayName="all_measurements" ref="A1:G26" tableType="queryTable" totalsRowShown="0">
+  <autoFilter ref="A1:G26" xr:uid="{00000000-0009-0000-0100-000002000000}"/>
   <tableColumns count="7">
-    <tableColumn id="1" uniqueName="1" name=" " queryTableFieldId="1"/>
-    <tableColumn id="2" uniqueName="2" name="Area" queryTableFieldId="2"/>
-    <tableColumn id="3" uniqueName="3" name="Mean" queryTableFieldId="3"/>
-    <tableColumn id="4" uniqueName="4" name="Min" queryTableFieldId="4"/>
-    <tableColumn id="5" uniqueName="5" name="Max" queryTableFieldId="5"/>
-    <tableColumn id="6" uniqueName="6" name="Length" queryTableFieldId="6"/>
-    <tableColumn id="7" uniqueName="7" name="idk" queryTableFieldId="7" dataDxfId="1">
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0100-000001000000}" uniqueName="1" name=" " queryTableFieldId="1"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0100-000002000000}" uniqueName="2" name="Area" queryTableFieldId="2"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0100-000003000000}" uniqueName="3" name="Mean" queryTableFieldId="3"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0100-000004000000}" uniqueName="4" name="Min" queryTableFieldId="4"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0100-000005000000}" uniqueName="5" name="Max" queryTableFieldId="5"/>
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0100-000006000000}" uniqueName="6" name="Length" queryTableFieldId="6"/>
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0100-000007000000}" uniqueName="7" name="idk" queryTableFieldId="7" dataDxfId="0">
       <calculatedColumnFormula>all_measurements[[#This Row],[Length]]/all_measurements[[#This Row],[Area]]</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -707,15 +723,15 @@
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="PAT_109_868_113___measurements" displayName="PAT_109_868_113___measurements" ref="A1:F2" tableType="queryTable" totalsRowShown="0">
-  <autoFilter ref="A1:F2"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF02000000}" name="PAT_109_868_113___measurements" displayName="PAT_109_868_113___measurements" ref="A1:F2" tableType="queryTable" totalsRowShown="0">
+  <autoFilter ref="A1:F2" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
   <tableColumns count="6">
-    <tableColumn id="1" uniqueName="1" name=" " queryTableFieldId="1"/>
-    <tableColumn id="2" uniqueName="2" name="Area" queryTableFieldId="2"/>
-    <tableColumn id="3" uniqueName="3" name="Mean" queryTableFieldId="3"/>
-    <tableColumn id="4" uniqueName="4" name="Min" queryTableFieldId="4"/>
-    <tableColumn id="5" uniqueName="5" name="Max" queryTableFieldId="5"/>
-    <tableColumn id="6" uniqueName="6" name="Length" queryTableFieldId="6"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0200-000001000000}" uniqueName="1" name=" " queryTableFieldId="1"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0200-000002000000}" uniqueName="2" name="Area" queryTableFieldId="2"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0200-000003000000}" uniqueName="3" name="Mean" queryTableFieldId="3"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0200-000004000000}" uniqueName="4" name="Min" queryTableFieldId="4"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0200-000005000000}" uniqueName="5" name="Max" queryTableFieldId="5"/>
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0200-000006000000}" uniqueName="6" name="Length" queryTableFieldId="6"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium7" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1017,11 +1033,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G26"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:L26"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I10" sqref="I10"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="N10" sqref="N10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1033,7 +1049,7 @@
     <col min="7" max="7" width="13.54296875" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>2</v>
       </c>
@@ -1056,7 +1072,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A2">
         <v>1</v>
       </c>
@@ -1080,7 +1096,7 @@
         <v>1.0941594580267193</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A3">
         <v>2</v>
       </c>
@@ -1104,7 +1120,7 @@
         <v>1.0930366203365456</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A4">
         <v>3</v>
       </c>
@@ -1128,7 +1144,7 @@
         <v>1.1016793011554336</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A5">
         <v>4</v>
       </c>
@@ -1152,7 +1168,7 @@
         <v>1.1054082239507783</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A6">
         <v>5</v>
       </c>
@@ -1175,8 +1191,11 @@
         <f>all_measurements__2[[#This Row],[Area]]/all_measurements__2[[#This Row],[Length]]</f>
         <v>1.0949726748758752</v>
       </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="J6" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A7">
         <v>6</v>
       </c>
@@ -1199,8 +1218,15 @@
         <f>all_measurements__2[[#This Row],[Area]]/all_measurements__2[[#This Row],[Length]]</f>
         <v>1.1202789076118536</v>
       </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="J7" t="s">
+        <v>3</v>
+      </c>
+      <c r="L7">
+        <f>SUM(all_measurements__2[Area])/25</f>
+        <v>1819.96</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A8">
         <v>7</v>
       </c>
@@ -1223,8 +1249,15 @@
         <f>all_measurements__2[[#This Row],[Area]]/all_measurements__2[[#This Row],[Length]]</f>
         <v>1.1173061789967733</v>
       </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="J8" t="s">
+        <v>7</v>
+      </c>
+      <c r="L8">
+        <f>SUM(all_measurements__2[Length])/25</f>
+        <v>1671.6960800000002</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A9">
         <v>8</v>
       </c>
@@ -1247,8 +1280,15 @@
         <f>all_measurements__2[[#This Row],[Area]]/all_measurements__2[[#This Row],[Length]]</f>
         <v>1.108616496496392</v>
       </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="J9" t="s">
+        <v>9</v>
+      </c>
+      <c r="L9">
+        <f>SUM(all_measurements__2[Asymmetry])/25</f>
+        <v>1.0862152213844674</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A10">
         <v>9</v>
       </c>
@@ -1272,7 +1312,7 @@
         <v>1.092641267392104</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A11">
         <v>10</v>
       </c>
@@ -1296,7 +1336,7 @@
         <v>1.100965493531316</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A12">
         <v>11</v>
       </c>
@@ -1320,7 +1360,7 @@
         <v>1.0652862501113893</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A13">
         <v>12</v>
       </c>
@@ -1344,7 +1384,7 @@
         <v>1.1356568849465654</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A14">
         <v>13</v>
       </c>
@@ -1368,7 +1408,7 @@
         <v>1.07774879831009</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A15">
         <v>14</v>
       </c>
@@ -1392,7 +1432,7 @@
         <v>1.1062970510397752</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A16">
         <v>15</v>
       </c>
@@ -1666,11 +1706,11 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:G26"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G3" sqref="G3"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G1" sqref="G1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -2313,7 +2353,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:F2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2378,7 +2418,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:A2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
